--- a/电子签约平台/流程梳理/数据库设计.xlsx
+++ b/电子签约平台/流程梳理/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>证件名称</t>
   </si>
@@ -198,6 +198,250 @@
   </si>
   <si>
     <t>三证合一的填写:统一社会信用代码证</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体说明：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多库只考虑主从的读写分离，不考虑横向的分库分表问题。主要是横向分库分表的话复杂度比较高，建议采用数据库中间件去实现</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发框架严格遵从主从读写库的写法，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用标准的模型的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>curd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原生的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必须采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>excute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>query</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来运行</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>考虑到实际业务需求和后续业务扩展，目前虽然不需要，但必须考虑到数据库的扩容</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表主键，仍然采用自增类型的字段，不采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uuid,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意考虑到性能，排序插入，索引等性能问题</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cfca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为咱们实施的数据库，没办法考虑分离，因为程序端不是咱们自己开发的，不可控制</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -606,14 +850,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -647,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>

--- a/电子签约平台/流程梳理/数据库设计.xlsx
+++ b/电子签约平台/流程梳理/数据库设计.xlsx
@@ -222,17 +222,33 @@
   </si>
   <si>
     <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开发框架严格遵从主从读写库的写法，</t>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>考虑到实际业务需求和后续业务扩展，目前虽然不需要，但必须考虑到数据库的扩容</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表主键，仍然采用自增类型的字段，不采用</t>
     </r>
     <r>
       <rPr>
@@ -242,17 +258,33 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用标准的模型的</t>
+      <t>uuid,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意考虑到性能，排序插入，索引等性能问题</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后续</t>
     </r>
     <r>
       <rPr>
@@ -262,17 +294,33 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>curd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作，</t>
+      <t>cfca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为咱们实施的数据库，没办法考虑分离，因为程序端不是咱们自己开发的，不可控制</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发框架严格遵从主从读写库的写法，</t>
     </r>
     <r>
       <rPr>
@@ -282,17 +330,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原生的</t>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用标准的模型的</t>
     </r>
     <r>
       <rPr>
@@ -302,17 +350,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>sql</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必须采用</t>
+      <t>curd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作，</t>
     </r>
     <r>
       <rPr>
@@ -322,17 +370,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>excute</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
+      <t xml:space="preserve"> b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原生的</t>
     </r>
     <r>
       <rPr>
@@ -342,49 +390,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>query</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>来运行</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>考虑到实际业务需求和后续业务扩展，目前虽然不需要，但必须考虑到数据库的扩容</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表主键，仍然采用自增类型的字段，不采用</t>
+      <t>sql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必须采用</t>
     </r>
     <r>
       <rPr>
@@ -394,33 +410,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>uuid,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注意考虑到性能，排序插入，索引等性能问题</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>后续</t>
+      <t>excute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
     </r>
     <r>
       <rPr>
@@ -430,17 +430,37 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>cfca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为咱们实施的数据库，没办法考虑分离，因为程序端不是咱们自己开发的，不可控制</t>
+      <t>query</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,c.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>写进去的数据不要立刻用读操作，而是直接用生成的数据。</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -853,7 +873,7 @@
   <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -865,12 +885,12 @@
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -880,12 +900,12 @@
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
